--- a/output_additional_column/1972.xlsx
+++ b/output_additional_column/1972.xlsx
@@ -490,7 +490,7 @@
         <v>75251</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>42394</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>51813</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>46344</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>79930</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>80134</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40321</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>30675</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>38578</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>27213</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>42618</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>38988</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>41644</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>62010</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>37760</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>59973</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>86857</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>83443</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>62220</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>33622</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>30467</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>31590</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>59666</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>72504</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="26">
@@ -1066,7 +1066,7 @@
         <v>21359</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>65685</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>22063</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="29">
@@ -1138,7 +1138,7 @@
         <v>49494</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="30">
@@ -1162,7 +1162,7 @@
         <v>24762</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="31">
@@ -1186,7 +1186,7 @@
         <v>86857</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="32">
@@ -1210,7 +1210,7 @@
         <v>55260</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="33">
@@ -1234,7 +1234,7 @@
         <v>35641</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="34">
@@ -1258,7 +1258,7 @@
         <v>24884</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1282,7 @@
         <v>46423</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="36">
@@ -1306,7 +1306,7 @@
         <v>38578</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="37">
@@ -1330,7 +1330,7 @@
         <v>30023</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="38">
@@ -1354,7 +1354,7 @@
         <v>62710</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="39">
@@ -1378,7 +1378,7 @@
         <v>78075</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="40">
@@ -1402,7 +1402,7 @@
         <v>77044</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="41">
@@ -1426,7 +1426,7 @@
         <v>56721</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="42">
@@ -1450,7 +1450,7 @@
         <v>84906</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="43">
@@ -1474,7 +1474,7 @@
         <v>74716</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="44">
@@ -1498,7 +1498,7 @@
         <v>38808</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="45">
@@ -1522,7 +1522,7 @@
         <v>57091</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="46">
@@ -1546,7 +1546,7 @@
         <v>83151</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="47">
@@ -1570,7 +1570,7 @@
         <v>59868</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="48">
@@ -1594,7 +1594,7 @@
         <v>40321</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="49">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         <v>53761</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="51">
@@ -1664,7 +1664,7 @@
         <v>38887</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="52">
@@ -1688,7 +1688,7 @@
         <v>29791</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="53">
@@ -1712,7 +1712,7 @@
         <v>26759</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="54">
@@ -1736,7 +1736,7 @@
         <v>65685</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="55">
@@ -1760,7 +1760,7 @@
         <v>80134</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="56">
@@ -1784,7 +1784,7 @@
         <v>36026</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="57">
@@ -1808,7 +1808,7 @@
         <v>34578</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="58">
@@ -1832,7 +1832,7 @@
         <v>65704</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="59">
@@ -1856,7 +1856,7 @@
         <v>43269</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="60">
@@ -1880,7 +1880,7 @@
         <v>31907</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="61">
@@ -1904,7 +1904,7 @@
         <v>46053</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="62">
@@ -1928,7 +1928,7 @@
         <v>26290</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="63">
@@ -1952,7 +1952,7 @@
         <v>49854</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="64">
@@ -1976,7 +1976,7 @@
         <v>57136</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="65">
@@ -2000,7 +2000,7 @@
         <v>37787</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="66">
@@ -2024,7 +2024,7 @@
         <v>50334</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="67">
@@ -2048,7 +2048,7 @@
         <v>77981</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="68">
@@ -2072,7 +2072,7 @@
         <v>70116</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="69">
@@ -2096,7 +2096,7 @@
         <v>44503</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="70">
@@ -2120,7 +2120,7 @@
         <v>70932</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="71">
@@ -2144,7 +2144,7 @@
         <v>64474</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="72">
@@ -2168,7 +2168,7 @@
         <v>46423</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="73">
@@ -2192,7 +2192,7 @@
         <v>30261</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="74">
@@ -2216,7 +2216,7 @@
         <v>14188</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="75">
@@ -2240,7 +2240,7 @@
         <v>84906</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="76">
@@ -2264,7 +2264,7 @@
         <v>69209</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="77">
@@ -2288,7 +2288,7 @@
         <v>44325</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="78">
@@ -2312,7 +2312,7 @@
         <v>76234</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="79">
@@ -2336,7 +2336,7 @@
         <v>25224</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
     <row r="80">
@@ -2360,7 +2360,7 @@
         <v>24434</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44703.76711172545</v>
+        <v>44703.79033110589</v>
       </c>
     </row>
   </sheetData>
